--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,116 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20900,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20900,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20900,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20900,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20900,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -528,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +707,116 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24550,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24550,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24550,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24550,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24550,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -613,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +902,28 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23,415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -698,7 +940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,6 +1009,28 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1969,65</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1015,7 +1279,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1969.65</t>
+          <t>23,415</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1062,7 +1326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1122,6 +1386,106 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1138,7 +1502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,6 +1571,116 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>687,70</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>687,70</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>687,70</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>687,70</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>687,70</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1223,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1283,6 +1757,106 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>123</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>123</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>123</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1299,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,6 +1942,116 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>718,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>718,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>718,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>718,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>718,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1384,7 +2068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1453,6 +2137,116 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2234,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2234,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2234,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2234,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2234,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1469,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1538,6 +2332,116 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7910,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7910,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7910,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7910,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7910,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1554,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1623,6 +2527,116 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>873,13</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>873,13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>873,13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>873,13</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>873,13</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1639,7 +2653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1713,6 +2727,116 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9,27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9,27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9,27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9,27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>25/05/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9,27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +671,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -687,7 +753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -910,6 +976,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -926,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1193,72 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1077,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,6 +1410,72 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1228,7 +1492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1363,6 +1627,72 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1379,7 +1709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,6 +1844,72 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1530,7 +1926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1665,6 +2061,72 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1681,7 +2143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,6 +2278,72 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2301,7 +2829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,6 +3052,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2540,7 +3134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2763,6 +3357,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2779,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3002,6 +3662,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -3018,7 +3744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,6 +3967,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -3257,7 +4049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3480,6 +4272,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -3496,7 +4354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3719,6 +4577,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -3735,7 +4659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -3958,6 +4882,72 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -3974,7 +4964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4202,6 +5192,72 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -753,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1042,6 +1284,226 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1058,7 +1520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,6 +1721,226 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1275,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,6 +2158,226 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1492,7 +2394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1693,6 +2595,226 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1709,7 +2831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1910,6 +3032,226 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1926,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2127,6 +3469,226 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -2143,7 +3705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2344,6 +3906,226 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2829,7 +4611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3118,6 +4900,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">725,64 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -3134,7 +5158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,6 +5447,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -3439,7 +5705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,6 +5994,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>57 494,45</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -3744,7 +6252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4033,6 +6541,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -4049,7 +6799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4338,6 +7088,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -4354,7 +7346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4643,6 +7635,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -4659,7 +7893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4948,6 +8182,248 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -4964,7 +8440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5258,6 +8734,248 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,6 +979,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20225,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20475,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -995,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D24"/>
+  <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1504,6 +1548,50 @@
         </is>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25000,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25600,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1520,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1941,6 +2029,50 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>24,535</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>24,645</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1957,7 +2089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,6 +2510,50 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1942,3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1940,55</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -2394,7 +2570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2815,6 +2991,50 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1067,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1088,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2831,7 +3051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3252,6 +3472,50 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>783,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>797,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -3268,7 +3532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3689,6 +3953,50 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2412,50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2457,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -3705,7 +4013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4126,6 +4434,50 @@
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>27,20</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -4163,7 +4515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">725,64 </t>
+          <t xml:space="preserve">730,79 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4190,7 +4542,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>714,80</t>
+          <t>720,20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4217,7 +4569,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>57 494,45</t>
+          <t>57 590,91</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4244,7 +4596,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>745,00</t>
+          <t>759,00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4271,7 +4623,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2165,50</t>
+          <t>2184,00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4298,7 +4650,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8359,50</t>
+          <t>8515,00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4325,7 +4677,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>909,84</t>
+          <t>927,73</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4379,7 +4731,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20225,00</t>
+          <t>20475,00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4406,7 +4758,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25000,00</t>
+          <t>25600,00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4433,7 +4785,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>24,535</t>
+          <t>24,645</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -4460,7 +4812,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1942,3</t>
+          <t>1940,55</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -4487,7 +4839,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1067,00</t>
+          <t>1088,00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4514,7 +4866,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>783,00</t>
+          <t>797,00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4541,7 +4893,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2412,50</t>
+          <t>2457,00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4611,7 +4963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5142,6 +5494,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">730,79 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">730,79 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -5158,7 +5554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5689,6 +6085,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>714,80</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>720,20</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -5705,7 +6145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6236,6 +6676,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>57 590,91</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>57 590,91</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -6252,7 +6736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6783,6 +7267,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>745,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>759,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6799,7 +7327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7330,6 +7858,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2165,50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2184,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -7346,7 +7918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7877,6 +8449,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8359,50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8515,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -7893,7 +8509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -8424,6 +9040,50 @@
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>909,84</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>927,73</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -8440,7 +9100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8976,6 +9636,50 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>01/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9,35</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>920,04</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -532,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +975,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -617,7 +1365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +1419,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>793,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>801,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>801,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -687,7 +1809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,6 +1878,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>755,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -772,7 +2268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,6 +2337,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>19485,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -857,7 +2727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,6 +2796,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25200,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -942,7 +3186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,6 +3255,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2453,50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1075,7 +3693,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">687,06 </t>
+          <t xml:space="preserve">678,06 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1102,7 +3720,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23,105</t>
+          <t>22,905</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1129,7 +3747,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2154,00</t>
+          <t>2156,50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1156,7 +3774,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1924,95</t>
+          <t>1913,8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1183,7 +3801,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>57 554,25</t>
+          <t>57 131,79</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1210,7 +3828,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1082,00</t>
+          <t>1080,00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1237,7 +3855,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8332,50</t>
+          <t>8353,00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1264,7 +3882,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>919,63</t>
+          <t>920,04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1316,6 +3934,11 @@
           <t>2M30</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>801,00</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>€</t>
@@ -1340,7 +3963,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>754,00</t>
+          <t>755,00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1367,7 +3990,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20050,00</t>
+          <t>19485,00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1394,7 +4017,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25550,00</t>
+          <t>25200,00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1421,7 +4044,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2437,50</t>
+          <t>2453,50</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1446,7 +4069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1515,6 +4138,365 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1531,7 +4513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1600,6 +4582,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">685,77 </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">685,77 </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">685,77 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">685,77 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">685,77 </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">685,77 </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">685,77 </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">678,06 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1616,7 +4972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,6 +5041,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22,905</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1701,7 +5431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,6 +5500,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2156,50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1786,7 +5890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1855,6 +5959,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1913,8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -1871,7 +6349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,6 +6418,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>57 278,08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>57 278,08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>57 278,08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>57 278,08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>57 278,08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>57 278,08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>57 278,08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 14/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>57 131,79</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1956,7 +6808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2025,6 +6877,380 @@
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1080,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2041,7 +7267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2115,6 +7341,380 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8353,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="7" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -66,7 +65,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,7 +434,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -447,13 +446,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -890,6 +889,248 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>929,58</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -906,13 +1147,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1349,6 +1590,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 37</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1365,13 +1870,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="16.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1793,6 +2301,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Invalid date format</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>803,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1809,13 +2581,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2252,6 +3024,248 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>765,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2268,13 +3282,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2711,6 +3725,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20255,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -2727,13 +4005,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3170,6 +4448,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25650,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -3186,13 +4728,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3629,6 +5171,248 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2551,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -3647,11 +5431,11 @@
   </sheetPr>
   <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3666,7 +5450,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27,48</t>
+          <t>Jour non valeur</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3693,7 +5477,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">678,06 </t>
+          <t xml:space="preserve">695,74 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3720,7 +5504,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22,905</t>
+          <t>22,64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3747,7 +5531,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2156,50</t>
+          <t>2192,50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3774,7 +5558,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1913,8</t>
+          <t>1901,75</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3801,7 +5585,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>57 131,79</t>
+          <t>57 832,04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3828,7 +5612,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1080,00</t>
+          <t>Jour non valeur</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3855,7 +5639,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8353,00</t>
+          <t>8423,00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3882,7 +5666,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>920,04</t>
+          <t>Jour non valeur</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3909,7 +5693,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>Jour non valeur</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3936,7 +5720,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>801,00</t>
+          <t>Jour non valeur</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3963,7 +5747,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>755,00</t>
+          <t>Jour non valeur</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3990,7 +5774,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19485,00</t>
+          <t>20255,00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4017,7 +5801,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25200,00</t>
+          <t>25650,00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4044,7 +5828,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2453,50</t>
+          <t>2551,00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4069,13 +5853,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4497,6 +6281,248 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Semaine 37</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>27,48</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -4513,13 +6539,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4956,6 +6982,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">695,74 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -4972,13 +7262,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5415,6 +7705,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -5431,13 +7985,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5874,6 +8428,248 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2192,50</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -5890,13 +8686,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6333,6 +9129,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1901,75</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -6349,13 +9409,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6792,6 +9852,270 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15/09/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>57 832,04</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -6808,13 +10132,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7251,6 +10575,248 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1093,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -7267,13 +10833,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7710,6 +11276,248 @@
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jour non valeur</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>8423,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="3" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -65,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -434,7 +435,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -446,23 +447,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>923,18</t>
+          <t>891,95</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -479,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>923,18</t>
+          <t>891,95</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,12 +502,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>923,18</t>
+          <t>891,95</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,12 +524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>923,18</t>
+          <t>891,95</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -545,12 +546,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>923,18</t>
+          <t>891,95</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -567,12 +568,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>923,18</t>
+          <t>891,95</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -581,28 +582,6 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>923,18</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -619,23 +598,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semaine 38</t>
+          <t xml:space="preserve"> Semaine 41</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -652,12 +631,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semaine 38</t>
+          <t xml:space="preserve"> Semaine 41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -674,12 +653,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semaine 38</t>
+          <t xml:space="preserve"> Semaine 41</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -696,12 +675,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semaine 38</t>
+          <t xml:space="preserve"> Semaine 41</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -718,12 +697,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semaine 38</t>
+          <t xml:space="preserve"> Semaine 41</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -732,28 +711,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Semaine 38</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>9,45</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -770,26 +727,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
-  <cols>
-    <col width="16.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Invalid date format</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>797,00</t>
+          <t>823,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -806,12 +760,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Invalid date format</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>797,00</t>
+          <t>823,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -828,12 +782,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Invalid date format</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>797,00</t>
+          <t>823,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,12 +804,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Invalid date format</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>797,00</t>
+          <t>823,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -872,12 +826,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Invalid date format</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>797,00</t>
+          <t>823,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -886,28 +840,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>797,00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -924,23 +856,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>759,00</t>
+          <t>738,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -957,12 +889,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>759,00</t>
+          <t>738,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -979,12 +911,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>759,00</t>
+          <t>738,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1001,12 +933,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>759,00</t>
+          <t>738,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1023,12 +955,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>759,00</t>
+          <t>738,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1037,28 +969,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>759,00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1075,23 +985,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>18335,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1108,12 +1018,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>18335,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1130,12 +1040,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>18335,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1152,12 +1062,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>18335,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1174,12 +1084,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>18335,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1188,28 +1098,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1226,23 +1114,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>25025,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1259,12 +1147,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>25025,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1281,12 +1169,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>25025,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1303,12 +1191,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>25025,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1325,12 +1213,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>25025,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1347,12 +1235,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>25025,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1361,6 +1249,28 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25025,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1377,23 +1287,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2424,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1410,12 +1320,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2424,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1432,12 +1342,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2424,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1454,66 +1364,60 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TO</t>
+          <t>2424,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TO</t>
+          <t>2445,50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TO</t>
+          <t>2440,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2437,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2474,50</t>
         </is>
       </c>
     </row>
@@ -1528,82 +1432,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>ZN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>3ZN1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26,83</t>
+          <t>2424,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>€</t>
+          <t>$</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>ZN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1AG1</t>
+          <t>3ZN1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2445,50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>€</t>
+          <t>$</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>ZN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1AG2</t>
+          <t>3ZN1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2440,50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1613,24 +1517,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OZ</t>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>ZN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3AL1</t>
+          <t>3ZN1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2437,00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1647,17 +1551,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ZN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1AU2</t>
+          <t>3ZN1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2474,50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1666,276 +1570,6 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1AU3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>B16</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2B16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1087,00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CU</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3CU1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CU</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3CU3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>923,18</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CUB</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2CUB</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9,45</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2M30</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>797,00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>M37</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2M37</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>759,00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3NI1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3SN1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1958,9 +1592,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semaine 41</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>25,70</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>€</t>
@@ -1973,6 +1617,16 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semaine 41</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>25,70</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>€</t>
@@ -1987,12 +1641,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Semaine 38</t>
+          <t>Semaine 41</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26,83</t>
+          <t>25,70</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2009,12 +1663,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semaine 38</t>
+          <t>Semaine 41</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26,83</t>
+          <t>25,70</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2031,12 +1685,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Semaine 38</t>
+          <t>Semaine 41</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26,83</t>
+          <t>25,70</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2053,12 +1707,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Semaine 38</t>
+          <t>Semaine 41</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26,83</t>
+          <t>25,70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2083,23 +1737,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t xml:space="preserve">674,84 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2116,12 +1770,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t xml:space="preserve">674,84 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2138,12 +1792,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t xml:space="preserve">674,84 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2160,12 +1814,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t xml:space="preserve">674,84 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2182,12 +1836,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t xml:space="preserve">674,84 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2196,50 +1850,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/09/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 19/09/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2256,23 +1866,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2289,12 +1899,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2311,12 +1921,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13.10.2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2333,12 +1943,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2355,12 +1965,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2369,50 +1979,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -2435,17 +2001,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2176,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2462,12 +2028,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2176,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2484,12 +2050,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2176,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2506,12 +2072,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2176,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2528,12 +2094,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2176,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2550,12 +2116,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2176,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2572,12 +2138,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>2176,00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2602,23 +2168,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13.10.2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>1909,2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2635,12 +2201,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13.10.2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>1909,2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2657,12 +2223,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>1909,2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2679,12 +2245,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>1909,2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2701,12 +2267,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>1909,2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2715,50 +2281,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -2781,17 +2303,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>57 543,97</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2808,12 +2330,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>57 543,97</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2830,12 +2352,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>57 543,97</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2852,12 +2374,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>57 543,97</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2874,12 +2396,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>57 543,97</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2896,12 +2418,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 13/10/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>57 543,97</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2918,12 +2440,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19/09/2023</t>
+          <t xml:space="preserve"> 16/10/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>58 411,71</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2948,23 +2470,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1087,00</t>
+          <t>1056,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2981,12 +2503,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1087,00</t>
+          <t>1056,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3003,12 +2525,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1087,00</t>
+          <t>1056,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3025,12 +2547,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1087,00</t>
+          <t>1056,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3047,12 +2569,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1087,00</t>
+          <t>1056,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3069,12 +2591,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1087,00</t>
+          <t>1056,00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3091,12 +2613,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1087,00</t>
+          <t>1056,00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3105,6 +2627,72 @@
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -3121,23 +2709,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>7891,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3154,12 +2742,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>7891,00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3176,12 +2764,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>7891,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3198,12 +2786,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>7891,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3220,12 +2808,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jour non valeur</t>
+          <t>7891,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3234,50 +2822,6 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jour non valeur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="7" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -66,7 +65,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,7 +434,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -447,13 +446,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -582,6 +581,270 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>893,86</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>891,95</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>894,59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>890,61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>889,42</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>904,24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>888,11</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>884,12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>896,11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>903,20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>912,37</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>893,86</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -604,7 +867,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -733,7 +996,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -856,13 +1119,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -969,6 +1232,270 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>738,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>739,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>737,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>736,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>737,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>734,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>744,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>749,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>758,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -985,13 +1512,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.90625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1018,12 +1548,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>03/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18335,00</t>
+          <t>18,40500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1040,12 +1570,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>04/10/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18335,00</t>
+          <t>18,60000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1062,12 +1592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>05/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18335,00</t>
+          <t>18,20500</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1084,12 +1614,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>06/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18335,00</t>
+          <t>18,28000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1098,6 +1628,798 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18,28000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18,20500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18,60000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18,40500</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>18,51000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18.460,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>18,28000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18,28000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>18,20500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18,60000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>18,40500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18,51000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1120,7 +2442,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1287,13 +2609,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1320,12 +2642,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>16/10/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2424,00</t>
+          <t>2434,50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1364,60 +2686,198 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2424,00</t>
+          <t>2445,50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12/10/2023</t>
+          <t>11/10/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2445,50</t>
+          <t>2440,50</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2440,50</t>
+          <t>2437,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10/10/2023</t>
+          <t>09/10/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2437,00</t>
+          <t>2474,50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09/10/2023</t>
+          <t>06/10/2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2474,50</t>
+          <t>2472,50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2455,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2502,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2511,50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2602,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
         </is>
       </c>
     </row>
@@ -1432,150 +2892,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2424,00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2445,50</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2440,50</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2437,00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2474,50</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1592,7 +2916,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1743,7 +3067,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1872,7 +3196,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1995,13 +3319,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2152,6 +3476,974 @@
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2176,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2180,50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2179,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2199,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2193,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2208,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2195,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2231,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2257,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2286,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2176,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2180,50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2179,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2199,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2193,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2208,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2176,00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2180,50</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2179,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2199,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2193,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2208,00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2195,50</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2231,00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2257,00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2286,50</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2176,00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2180,50</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2179,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2199,00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2193,00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2208,00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2195,50</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2231,00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2257,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2286,50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -2174,7 +4466,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2303,7 +4595,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2470,13 +4762,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2693,6 +4985,534 @@
         </is>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1051,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1049,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1065,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1044,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1042,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1054,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1061,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1068,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1051,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1049,00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1065,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1044,00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1042,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1054,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1061,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1068,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2709,13 +5529,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2822,6 +5642,710 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7891,00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7995,00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7943,50</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7907,50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8015,50</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7887,00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7891,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7995,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7943,50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7907,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8015,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7887,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7812,50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>7910,50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7960,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8100,50</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7891,00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7995,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7943,50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7907,50</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>8015,50</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7887,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7812,50</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>7910,50</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7960,00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>8100,50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -990,7 +990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,6 +1103,6579 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>903.20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18405.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1061.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1040.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1420.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>706.79</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>749.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1519.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>834.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7960.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>858.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1103.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>859.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1557.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>771.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>792.10</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>883.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>786.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>24050.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2257.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>884.49</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1019.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2511.50</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10/03/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1109.00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>852.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1107.00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>852.00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>904.50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>24000.00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1548.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>763.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1096.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>877.73</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>828.00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>785.60</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>701.51</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1514.00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>744.00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>876.00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>896.11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2502.00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1054.00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>704.00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>18600.00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1414.00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7910.50</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>780.00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>854.00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2231.00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1032.00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>10/04/2023</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1011.00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>892.10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>7812.50</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>774.50</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>842.00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1497.00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>770.00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>734.00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>18205.00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2455.00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>755.00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1533.00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>841.00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1095.00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>24050.00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>841.00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>865.42</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>691.50</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>865.00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>817.00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1084.00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1042.00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>694.00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2195.50</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>750.00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1021.00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>884.12</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>10/05/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1399.00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>18280.00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>23965.00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1399.00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>694.45</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1086.00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2472.50</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>758.00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>778.80</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>7887.00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1024.00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>868.00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>844.00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>896.61</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1096.00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1003.00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>697.00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>888.11</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2208.00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1044.00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>752.00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>820.00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>896.44</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>845.00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1532.00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1497.00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>737.00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10/06/2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>846.00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>785.00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2193.00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>18610.00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>860.00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1065.00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>904.24</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>707.00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1420.00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>834.00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1520.00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>857.00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1559.00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>913.11</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>770.00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>748.00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1022.00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1044.00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>794.30</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>705.48</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>8015.50</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>883.00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>859.00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2474.50</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>24700.00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>885.75</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>10/09/2023</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1108.00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1028.00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1006.00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>18260.00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>846.00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>780.30</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1095.00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>693.80</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1495.00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1533.00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>736.00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>7907.50</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>758.00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>897.84</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>845.00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2199.00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>869.00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>870.96</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>889.42</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>696.00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1049.00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>821.00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1397.00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>24500.00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>751.00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1092.00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2437.00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>845.00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1494.00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>737.00</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>751.00</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>7943.50</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2440.50</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1095.00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>890.61</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>696.00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>899.20</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>822.00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>694.47</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>773.00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>846.00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>845.00</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1533.00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1008.00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>872.27</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>24650.00</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1396.00</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1094.00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>18260.00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>758.00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>870.00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1051.00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2179.00</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1029.00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>781.30</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>847.00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>755.00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1504.00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>697.16</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>874.00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1034.00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>903.41</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>849.00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>785.60</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1098.00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>18435.00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1013.00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>739.00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1099.00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>761.00</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>876.34</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>851.00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2180.50</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1056.00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1406.00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>24900.00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1545.00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>849.00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2445.50</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>7995.00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>825.00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>699.00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>894.59</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>782.30</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1056.00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>738.00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>900.27</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>7891.00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>823.00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>847.00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1034.00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2176.00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>873.32</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1506.00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>872.00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>847.00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>760.00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1547.00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>18335.00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1100.00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1011.00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1098.00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>848.00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2424.00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>754.00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>774.00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>695.38</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>697.00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>891.95</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1407.00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>10/13/2023</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>25025.00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1547.00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>850.00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>24725.00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>696.96</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1409.00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>761.00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>699.00</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>893.86</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>848.00</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2434.50</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>757.00</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1100.00</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>875.30</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2161.50</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1055.00</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>7920.00</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>825.00</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>784.10</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>902.32</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>740.00</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>849.00</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1034.00</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1508.00</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>18460.00</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>873.00</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1012.00</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>10/16/2023</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1099.00</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2148.50</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1089.00</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>744.00</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>751.00</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1394.00</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1045.00</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>814.00</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>839.00</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1533.00</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1089.00</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1002.00</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>863.00</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>839.00</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>838.00</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>883.22</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>689.00</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1024.00</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>730.00</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>10/17/2023</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1492.00</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1512,13 +8085,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D42"/>
+  <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="13.90625" customWidth="1" min="1" max="1"/>
   </cols>
@@ -2420,6 +8993,160 @@
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18.460,00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -2436,7 +9163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2593,6 +9320,160 @@
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24,72500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25,02500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24,90000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24,65000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24,50000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24,70000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24.725,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -3190,7 +10071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3303,6 +10184,228 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>22.595</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21.715</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21.115</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21.105</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>21.055</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22,595</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -4460,7 +11563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4573,6 +11676,348 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1857</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1871.25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1909.2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1918.05</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1918.05</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1909.2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1871.25</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1857</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1819.6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1819.45</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1818.95</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1822.45</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1918,05</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M37" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2360" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2B16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2M30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2M37" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -757,6 +757,446 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>883,22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>893,86</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>891,95</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>894,59</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>890,61</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>889,42</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>904,24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>888,11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>884,12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>896,11</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>903,20</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>912,37</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>883,22</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>883,22</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>893,86</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>891,95</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>894,59</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>890,61</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>889,42</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>904,24</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -773,13 +1213,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -886,6 +1329,28 @@
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 42</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -902,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -1213,6 +1678,490 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>774.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>773.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>785.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>770.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>780.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>786.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>795.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>774.00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>773.00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>785.00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1229,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -1540,6 +2489,446 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>730,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>738,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>739,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>737,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>736,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>737,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>734,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>744,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>749,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>758,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>730,00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>730,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>738,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>739,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>737,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>736,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1556,7 +2945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -1875,6 +3264,446 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18,16000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>18,28000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18,20500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18,60000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>18,40500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18,51000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>18.160,00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>18,16000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1886,7 +3715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -2197,6 +4026,446 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24,88000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24,72500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25,02500</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24,90000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24,65000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>24,50000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>24,70000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23,96500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>24,05000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24,00000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>24,05000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23,90000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>24.880,00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>24,88000</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>24,72500</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25,02500</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>24,90000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24,65000</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24,50000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>24,70000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -2213,7 +4482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -2524,6 +4793,446 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2377,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2434,50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2424,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2445,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2440,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2437,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2474,50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2472,50</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2455,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2502,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2511,50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2602,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2377,00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2377,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2434,50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2424,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2445,50</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2440,50</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2437,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2474,50</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -2542,8 +5251,8 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -2558,7 +5267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2693,6 +5402,72 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Semaine 42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>25,61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Semaine 42</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25,61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Semaine 42</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25,61</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2709,9 +5484,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -2996,6 +5771,448 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>706.99</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>690.92</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>689.63</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>674.84</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>670.34</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>669.38</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>659.41</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>661.02</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>643.34</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>645.91</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>645.91</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>646.23</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>659.41</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">706,99 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>706.99</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>690.92</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>689.63</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>674.84</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>670.34</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>669.38</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>659.41</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>661.02</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -3012,7 +6229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -3299,6 +6516,408 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>22.595</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>21.715</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21.115</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>21.105</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21.055</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22,68</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>22.595</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>21.715</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -3315,7 +6934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -3626,6 +7245,446 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2148,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2176,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2180,50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2179,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2199,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2193,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2208,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2195,50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2231,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2257,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2286,50</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2148,50</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2148,50</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2176,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2180,50</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2179,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2199,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2193,00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -3642,7 +7701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -3929,6 +7988,408 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1928.2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1918.05</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1909.2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1871.25</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1857</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1819.6</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1819.45</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1818.95</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1822.45</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1833.05</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1928,2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1928.2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1918.05</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1909.2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1871.25</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1857</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -3945,7 +8406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -4232,6 +8693,448 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>59077.55</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>58618.44</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>58411.71</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>57543.97</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>56948.21</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>56670.75</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>56358.57</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>56497.78</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>55517.83</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>55760.57</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>55851.87</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>56059.57</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>55874.06</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>59 077,55</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>59077.55</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>58618.44</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>58411.71</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>57543.97</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>56948.21</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>56670.75</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>56358.57</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>56497.78</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -4248,7 +9151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -4559,6 +9462,446 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1045,00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1051,00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1049,00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1065,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1044,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1042,00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1054,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1061,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1068,00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1045,00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1045,00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1051,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1049,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1065,00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -4575,7 +9918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -4891,6 +10234,446 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7846,50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>7891,00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7995,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>7943,50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7907,50</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8015,50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>7887,00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7812,50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7910,50</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7960,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8100,50</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7846,50</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7846,50</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7891,00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7995,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7943,50</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7907,50</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>8015,50</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -1197,6 +1197,380 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>894,69</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>894,69</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>883,22</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>893,86</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>891,95</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>894,59</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>890,61</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>889,42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>904,24</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>888,11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>884,12</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>896,11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>903,20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>912,37</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>894,69</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>894,69</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>894,69</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -1213,7 +1587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,6 +1730,28 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 42</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1367,7 +1763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D37"/>
+  <dimension ref="A2:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -2162,6 +2558,380 @@
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>766.00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>774.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>773.00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>785.00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>772.00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>770.00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>780.00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>786.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>795.00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2178,7 +2948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -2929,6 +3699,380 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>730,00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>738,00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>739,00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>737,00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>736,00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>748,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>737,00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>734,00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>744,00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>749,00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>758,00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2945,7 +4089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -3704,6 +4848,380 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>18.160,00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>18,47000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18,16000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>18,46000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18,33500</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>18,43500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>18,26000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18,61000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>18,28000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>18,20500</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>18,60000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18,40500</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>18,51000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>18.160,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>18.160,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>18.160,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3715,7 +5233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -4466,6 +5984,380 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>24.880,00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>25,45000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>24,88000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>24,72500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>25,02500</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>24,90000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>24,65000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>24,50000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>24,70000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>23,96500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>24,05000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>24,00000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>24,05000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23,90000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>24.880,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>24.880,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>24.880,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -4482,7 +6374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -5233,6 +7125,380 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2431,00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2431,00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2377,00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2434,50</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2424,00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2445,50</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2440,50</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2437,00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2474,50</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2472,50</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2455,00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2502,00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2511,50</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2602,00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2431,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2431,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2431,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -5249,14 +7515,366 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1AG1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">706,99 </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1AG2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23,21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3AL1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2176,50</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1AU2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1955,7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AU3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>59 077,55</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2B16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1060,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3CU1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7947,50</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3CU3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>894,69</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2M30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>M37</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2M37</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3NI1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18.160,00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3SN1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24.880,00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ZN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3ZN1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2431,00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5267,7 +7885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5468,6 +8086,28 @@
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Semaine 42</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25,61</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -5484,7 +8124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D37"/>
+  <dimension ref="A2:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -6213,6 +8853,354 @@
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">706,99 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>706.99</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>690.92</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>689.63</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>674.84</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>670.34</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>669.38</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>659.41</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>661.02</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>643.34</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>645.91</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>645.91</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>646.23</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>659.41</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">706,99 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">706,99 </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">706,99 </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -6229,7 +9217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -6918,6 +9906,354 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23,21</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>22.68</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>22.595</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>21.715</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>21.115</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>21.105</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>21.055</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>23,21</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>23,21</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>23,21</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -6934,7 +10270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -7685,6 +11021,380 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2176,50</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2176,50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2148,50</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2161,50</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2176,00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2180,50</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2179,00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2199,00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2193,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2208,00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2195,50</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2231,00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2257,00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2286,50</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2176,50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2176,50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2176,50</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -7701,7 +11411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -8390,6 +12100,354 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1955,7</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1955.7</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1928.2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1918.05</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1909.2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1874</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1871.25</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1857</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1845.5</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1819.6</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1819.45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1818.95</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1822.45</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1833.05</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1955,7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1955,7</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1955,7</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -8406,7 +12464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D37"/>
+  <dimension ref="A2:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -9135,6 +13193,354 @@
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>59 077,55</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>59077.55</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>58618.44</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>58411.71</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>57543.97</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>56948.21</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>56670.75</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>56358.57</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>56497.78</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>55517.83</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>55760.57</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>55851.87</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>56059.57</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>55874.06</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>59 077,55</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>59 077,55</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18/10/2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>59 077,55</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -9151,7 +13557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -9902,6 +14308,380 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1060,00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1060,00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1045,00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1051,00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1049,00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1065,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1044,00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1042,00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1054,00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1061,00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1068,00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1060,00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1060,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1060,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -9918,7 +14698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -10674,6 +15454,380 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7947,50</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>7947,50</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7846,50</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16/10/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>7920,00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>13/10/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7891,00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/10/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>7995,00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>7943,50</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>7907,50</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09/10/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>8015,50</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>06/10/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>7887,00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/10/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>7812,50</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/10/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7910,50</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/10/2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7960,00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/10/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>8100,50</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7947,50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>7947,50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7947,50</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -2401,7 +2401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D116"/>
+  <dimension ref="A2:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -4934,6 +4934,57 @@
         </is>
       </c>
       <c r="D116" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6707,7 +6758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D93"/>
+  <dimension ref="A2:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8742,6 +8793,108 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>18.470,00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>18.285,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>18.285,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8753,7 +8906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D97"/>
+  <dimension ref="A2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -10868,6 +11021,138 @@
         </is>
       </c>
       <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>25.450,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>25.450,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>25.450,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>25.450,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>18/10/2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>25.450,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>19/10/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>25.075,00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -12949,7 +13234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -12970,7 +13255,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18.470,00</t>
+          <t>18.285,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -12997,7 +13282,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25.450,00</t>
+          <t>25.075,00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13006,33 +13291,6 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2431,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2360" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2B16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2M30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2M37" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M37" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2187,6 +2187,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>884,85</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>884,85</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2203,7 +2247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2390,6 +2434,50 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 42</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 42</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2401,7 +2489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D119"/>
+  <dimension ref="A2:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -4985,6 +5073,50 @@
         </is>
       </c>
       <c r="D119" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>768,00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>768,00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5001,7 +5133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -6742,6 +6874,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>732,00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>732,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6758,7 +6934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D99"/>
+  <dimension ref="A2:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8895,6 +9071,18 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8906,7 +9094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D103"/>
+  <dimension ref="A2:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11153,6 +11341,18 @@
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11169,7 +11369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13218,6 +13418,28 @@
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2415,50</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13234,7 +13456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -13245,52 +13467,393 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3NI1</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18.285,00</t>
+          <t>25,61</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>€</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1AG1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">705,06 </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1AG2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23,215</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3AL1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2152,00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AU2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1988,5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1AU3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>60 291,24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2B16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1044,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3CU1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7876,00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3CU3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>884,85</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2CUB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2M30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>768,00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M37</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2M37</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>732,00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3NI1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>SN</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>3SN1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>25.075,00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3ZN1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2415,50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13307,7 +13870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13552,6 +14115,50 @@
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Semaine 42</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25,61</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Semaine 42</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25,61</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -13568,7 +14175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -15209,6 +15816,50 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20/10/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">705,06 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20/10/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">705,06 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -15225,7 +15876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -16826,6 +17477,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>23,215</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>23,215</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -16842,7 +17537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -18583,6 +19278,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2152,00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2152,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -18599,7 +19338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -20200,6 +20939,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1988,5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1988,5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -20216,7 +20999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -21857,6 +22640,50 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20/10/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>60 291,24</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20/10/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>60 291,24</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -21873,7 +22700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -23614,6 +24441,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1044,00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1044,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -23630,7 +24501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D106"/>
+  <dimension ref="A2:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -25948,6 +26819,50 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>7876,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20/10/2023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>7876,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -6707,7 +6707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D93"/>
+  <dimension ref="A2:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8742,6 +8742,18 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8753,7 +8765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D97"/>
+  <dimension ref="A2:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -10868,6 +10880,18 @@
         </is>
       </c>
       <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -10884,7 +10908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -12933,6 +12957,28 @@
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>23/10/2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2404,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -12968,11 +13014,6 @@
           <t>3NI1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>18.470,00</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>$</t>
@@ -12995,11 +13036,6 @@
           <t>3SN1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>25.450,00</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>$</t>
@@ -13024,7 +13060,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2431,00</t>
+          <t>2404,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2360" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2B16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2M30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2M37" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M37" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2187,6 +2187,28 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>893,62</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2203,7 +2225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2390,6 +2412,28 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 43</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2401,7 +2445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D116"/>
+  <dimension ref="A2:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -4934,6 +4978,28 @@
         </is>
       </c>
       <c r="D116" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -4950,7 +5016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -6691,6 +6757,28 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6707,7 +6795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D93"/>
+  <dimension ref="A2:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8742,6 +8830,28 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>18.150,00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8753,7 +8863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D97"/>
+  <dimension ref="A2:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -10868,6 +10978,28 @@
         </is>
       </c>
       <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>24.925,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -10884,7 +11016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -12933,6 +13065,28 @@
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2458,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -12949,7 +13103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -12960,79 +13114,403 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3NI1</t>
+          <t>2360</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18.470,00</t>
+          <t>25,55</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>€</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3SN1</t>
+          <t>1AG1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25.450,00</t>
+          <t xml:space="preserve">693,49 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>€</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1AG2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22,81</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3AL1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2188,50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AU2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1983,3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1AU3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>59 934,05</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2B16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3CU1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7946,00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3CU3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>893,62</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2CUB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2M30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M37</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2M37</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3NI1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18.150,00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3SN1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24.925,00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>ZN</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>3ZN1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2431,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2458,00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13049,7 +13527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13294,6 +13772,28 @@
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Semaine 43</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25,55</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -13310,7 +13810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -14951,6 +15451,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25/10/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">693,49 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -14967,7 +15489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -16568,6 +17090,28 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>22,81</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -16584,7 +17128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -18325,6 +18869,28 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2188,50</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -18341,7 +18907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -19942,6 +20508,28 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1983,3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -19958,7 +20546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -21599,6 +22187,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25/10/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>59 934,05</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -21615,7 +22225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -23356,6 +23966,28 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1056,00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -23372,7 +24004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D106"/>
+  <dimension ref="A2:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -25690,6 +26322,28 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>7946,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="7" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2360" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2B16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2M30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2M37" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Feuil2" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Feuil1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M37" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1209,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
@@ -1440,6 +1440,28 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18150,00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1451,7 +1473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
@@ -1718,6 +1740,28 @@
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24925,00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -1734,7 +1778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -2070,6 +2114,28 @@
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2458,00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M37" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2360" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2B16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2M30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2M37" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6795,7 +6795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8852,6 +8852,28 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8863,7 +8885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D98"/>
+  <dimension ref="A2:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11000,6 +11022,28 @@
         </is>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11016,7 +11060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D95"/>
+  <dimension ref="A2:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13087,6 +13131,28 @@
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13103,7 +13169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -13114,71 +13180,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>3NI1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,55</t>
+          <t>17900,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>€</t>
+          <t>$</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1AG1</t>
+          <t>3SN1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">693,49 </t>
+          <t>24750,00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>€</t>
+          <t>$</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>TO</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>ZN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1AG2</t>
+          <t>3ZN1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22,81</t>
+          <t>2432,00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -13187,330 +13253,6 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3AL1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2188,50</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1AU2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1983,3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1AU3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>59 934,05</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>B16</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2B16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1056,00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CU</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3CU1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7946,00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CU</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3CU3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>893,62</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CUB</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2CUB</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9,40</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2M30</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>776,00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>M37</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2M37</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>740,00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3NI1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18.150,00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3SN1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>24.925,00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2458,00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -6795,7 +6795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D95"/>
+  <dimension ref="A2:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8874,6 +8874,50 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8885,7 +8929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D99"/>
+  <dimension ref="A2:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11044,6 +11088,50 @@
         </is>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11060,7 +11148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D96"/>
+  <dimension ref="A2:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13153,6 +13241,50 @@
         </is>
       </c>
       <c r="D96" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2187,6 +2187,28 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>895,77</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2203,7 +2225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2390,6 +2412,28 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 43</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2401,7 +2445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D116"/>
+  <dimension ref="A2:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -4934,6 +4978,28 @@
         </is>
       </c>
       <c r="D116" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>777,00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -4950,7 +5016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -6691,6 +6757,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6707,7 +6817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8754,6 +8864,72 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8765,7 +8941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D98"/>
+  <dimension ref="A2:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -10892,6 +11068,72 @@
         </is>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -10908,7 +11150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D95"/>
+  <dimension ref="A2:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -12979,6 +13221,72 @@
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -12995,7 +13303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -13006,61 +13314,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3NI1</t>
+          <t>2360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25,55</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>€</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3SN1</t>
+          <t>1AG1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">832,19 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>€</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZN</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3ZN1</t>
+          <t>1AG2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2404,00</t>
+          <t>22,97</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -13070,7 +13388,115 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3AL1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2202,50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AU2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1AU3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>60 877,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2B16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1057,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100KG</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13330,6 +13756,50 @@
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Semaine 43</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25,55</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Semaine 43</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>25,55</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -13346,7 +13816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -14987,6 +15457,50 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26/10/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">841,06 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27/10/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">832,19 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -15003,7 +15517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -16604,6 +17118,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>22,97</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>22,97</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -16620,7 +17178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -18361,6 +18919,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2202,50</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2202,50</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -18377,7 +18979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -19978,6 +20580,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -19994,7 +20640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -21635,6 +22281,50 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26/10/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>61 097,00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27/10/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>60 877,00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -21651,7 +22341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D80"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -23392,6 +24082,50 @@
         </is>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1057,00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1057,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -23408,7 +24142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D106"/>
+  <dimension ref="A2:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -25726,6 +26460,28 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>7939,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2209,6 +2209,28 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>895,77</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2225,7 +2247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,6 +2456,28 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 43</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2445,7 +2489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D117"/>
+  <dimension ref="A2:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -5000,6 +5044,24 @@
         </is>
       </c>
       <c r="D117" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5016,7 +5078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -6801,6 +6863,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6817,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D97"/>
+  <dimension ref="A2:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8930,6 +9014,28 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8941,7 +9047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D101"/>
+  <dimension ref="A2:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11134,6 +11240,28 @@
         </is>
       </c>
       <c r="D101" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11150,7 +11278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D98"/>
+  <dimension ref="A2:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13287,6 +13415,28 @@
         </is>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13303,7 +13453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -13497,6 +13647,218 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3CU1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7939,00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3CU3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>895,77</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2CUB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2M30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M37</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2M37</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3NI1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17900,00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3SN1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ZN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3ZN1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2432,00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TO</t>
         </is>
       </c>
     </row>
@@ -24142,7 +24504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D107"/>
+  <dimension ref="A2:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -26482,6 +26844,28 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>26/10/2023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>7939,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2360" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="2B16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="2M30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="2M37" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M37" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2231,6 +2231,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>894,70</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2247,7 +2269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,6 +2500,28 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 44</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2489,7 +2533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D118"/>
+  <dimension ref="A2:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -5055,13 +5099,34 @@
           <t>26/10/2023</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>€</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>777,00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5078,7 +5143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -6885,6 +6950,28 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6901,7 +6988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D98"/>
+  <dimension ref="A2:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -9036,6 +9123,28 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>17810,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9047,7 +9156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D102"/>
+  <dimension ref="A2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11262,6 +11371,28 @@
         </is>
       </c>
       <c r="D102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>24150,00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11278,7 +11409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D99"/>
+  <dimension ref="A2:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13437,6 +13568,28 @@
         </is>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2494,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13474,7 +13627,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,55</t>
+          <t>25,07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -13501,7 +13654,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">832,19 </t>
+          <t xml:space="preserve">820,61 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13528,7 +13681,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22,97</t>
+          <t>22,64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -13555,7 +13708,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2202,50</t>
+          <t>2219,50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -13582,7 +13735,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1994,45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -13609,7 +13762,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>60 877,00</t>
+          <t>60 455,00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -13636,7 +13789,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1057,00</t>
+          <t>1050,00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -13663,7 +13816,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7939,00</t>
+          <t>8070,50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -13690,7 +13843,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>895,77</t>
+          <t>894,70</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -13742,7 +13895,11 @@
           <t>2M30</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>777,00</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>€</t>
@@ -13767,7 +13924,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>741,00</t>
+          <t>740,00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -13794,7 +13951,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17900,00</t>
+          <t>17810,00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -13821,7 +13978,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24750,00</t>
+          <t>24150,00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -13848,7 +14005,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2432,00</t>
+          <t>2494,00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -13873,7 +14030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14162,6 +14319,28 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Semaine 44</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25,07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -14178,7 +14357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -15863,6 +16042,28 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">820,61 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -15879,7 +16080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -17524,6 +17725,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>22,64</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -17540,7 +17763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -19325,6 +19548,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2219,50</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -19341,7 +19586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -20986,6 +21231,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1994,45</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -21002,7 +21269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -22687,6 +22954,28 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>60 455,00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -22703,7 +22992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D82"/>
+  <dimension ref="A2:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -24488,6 +24777,28 @@
         </is>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1050,00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -24504,7 +24815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D108"/>
+  <dimension ref="A2:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -26866,6 +27177,28 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>8070,50</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2360" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M30" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2M37" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2360" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1AG1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1AG2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="3AL1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="1AU2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="1AU3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2B16" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="3CU1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="3CU3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2CUB" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2M30" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2M37" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2275,7 +2275,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -6994,7 +6994,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col width="13.90625" customWidth="1" min="1" max="1"/>
   </cols>
@@ -11409,7 +11409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D100"/>
+  <dimension ref="A2:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13590,6 +13590,50 @@
         </is>
       </c>
       <c r="D100" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2494,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2494,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13606,7 +13650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -13617,403 +13661,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>ZN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2360</t>
+          <t>3ZN1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25,07</t>
+          <t>2494,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>€</t>
+          <t>$</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AG</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1AG1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">820,61 </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AG</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1AG2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22,64</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3AL1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2219,50</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1AU2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1994,45</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>OZ</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1AU3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>60 455,00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>B16</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2B16</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1050,00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CU</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3CU1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8070,50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CU</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3CU3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>894,70</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CUB</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2CUB</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>9,40</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>M30</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2M30</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>777,00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>M37</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2M37</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>740,00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>€</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>100KG</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NI</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3NI1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>17810,00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3SN1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>24150,00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ZN</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3ZN1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2494,00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>TO</t>
         </is>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -31,7 +31,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -61,8 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2209,6 +2214,252 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>892,14</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2225,7 +2476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,6 +2685,248 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Semaine 45</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2445,7 +2938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D117"/>
+  <dimension ref="A2:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -5000,6 +5493,252 @@
         </is>
       </c>
       <c r="D117" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>778.00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>776.00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5016,7 +5755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -6779,6 +7518,252 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>742,00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6795,7 +7780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D97"/>
+  <dimension ref="A2:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -8918,6 +9903,404 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>17810,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>06/11/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>17865,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>17585,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>17865,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>17650,00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>17650,00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8929,7 +10312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D101"/>
+  <dimension ref="A2:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11132,6 +12515,404 @@
         </is>
       </c>
       <c r="D101" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>24,15000</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>06/11/2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>24,30000</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>24,27500</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>24,55000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>24,64000</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>24,27500</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>24,64000</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>24,27500</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11148,7 +12929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D98"/>
+  <dimension ref="A2:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13285,6 +15066,404 @@
         </is>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>03/11/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2494,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>06/11/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2559,50</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2538,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2604,50</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2592,00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2592,00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13301,10 +15480,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -13312,44 +15491,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3NI1</t>
+          <t>1AG1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17900,00</t>
+          <t xml:space="preserve">812,90 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>€</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>KG</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3SN1</t>
+          <t>1AG2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24750,00</t>
+          <t>22,495</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13359,32 +15538,302 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>OZ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3AL1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1AU2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AU3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2B16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3CU1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3CU3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2M30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>M37</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2M37</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3NI1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3SN1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>ZN</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>3ZN1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2432,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13401,7 +15850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13668,6 +16117,226 @@
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -13684,13 +16353,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15347,6 +18019,384 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">814,06 </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -15363,13 +18413,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="10.453125" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16986,6 +20039,308 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>22.495</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -17002,13 +20357,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18765,6 +22123,252 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2228,00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -18781,13 +22385,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -20404,6 +24011,248 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1957.45</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1941.65</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -20420,7 +24269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -22083,6 +25932,362 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">58 935,00 </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">59 233,00 </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -22099,7 +26304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D81"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -23862,6 +28067,252 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1051,00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -23878,7 +28329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D107"/>
+  <dimension ref="A2:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -26218,6 +30669,252 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>8030,50</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2253,6 +2253,28 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2269,13 +2291,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D12"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -2517,6 +2539,28 @@
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2533,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D119"/>
+  <dimension ref="A2:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -5127,6 +5171,28 @@
         </is>
       </c>
       <c r="D119" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5143,7 +5209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -6972,6 +7038,28 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -6988,13 +7076,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D99"/>
+  <dimension ref="A2:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
     <col width="13.90625" customWidth="1" min="1" max="1"/>
   </cols>
@@ -9140,6 +9228,28 @@
         </is>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -9156,7 +9266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D103"/>
+  <dimension ref="A2:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11393,6 +11503,28 @@
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11409,7 +11541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D102"/>
+  <dimension ref="A2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13634,6 +13766,28 @@
         </is>
       </c>
       <c r="D102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13650,7 +13804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -13661,25 +13815,403 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2360</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1AG1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1AG2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3AL1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1AU2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1AU3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2B16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3CU1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3CU3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2CUB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9,47</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2M30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M37</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2M37</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3NI1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3SN1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>ZN</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>3ZN1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2494,00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13696,7 +14228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14007,6 +14539,28 @@
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Semaine 45</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24,64</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -14023,7 +14577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D85"/>
+  <dimension ref="A2:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -15730,6 +16284,28 @@
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -15746,7 +16322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -17413,6 +17989,28 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -17429,7 +18027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -19236,6 +19834,28 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -19252,7 +19872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -20919,6 +21539,28 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -20935,7 +21577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D85"/>
+  <dimension ref="A2:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -22642,6 +23284,28 @@
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -22658,7 +23322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D83"/>
+  <dimension ref="A2:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -24465,6 +25129,28 @@
         </is>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -24481,7 +25167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D109"/>
+  <dimension ref="A2:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -26865,6 +27551,28 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="1" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="3" activeTab="17" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="3NI1" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="3SN1" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="3ZN1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="RPA" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="ZLME" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="EURX" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="RPA" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -32,13 +34,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Abadi"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Abadi"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,12 +72,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2275,6 +2311,72 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>890,28</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>891,96</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2291,7 +2393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2566,6 +2668,28 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Semaine 46</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>9,45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2577,7 +2701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D120"/>
+  <dimension ref="A2:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -5193,6 +5317,72 @@
         </is>
       </c>
       <c r="D120" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>776,00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5209,7 +5399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D85"/>
+  <dimension ref="A2:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -7060,6 +7250,72 @@
         </is>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>741,00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>740,00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -7076,7 +7332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D100"/>
+  <dimension ref="A2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -9255,6 +9511,72 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>17170,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>17000,00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9266,7 +9588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D104"/>
+  <dimension ref="A2:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11525,6 +11847,72 @@
         </is>
       </c>
       <c r="D104" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>24275,00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>24750,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11541,7 +11929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D103"/>
+  <dimension ref="A2:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -13788,6 +14176,72 @@
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2584,00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2538,00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -13804,9 +14258,443 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E16"/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Déb.Val</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Certain</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06/11/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,07450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,06790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,06680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,06900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1,06820</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,06730</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,06730</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1,06730</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Déb.Val</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Certain</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>06/11/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,07410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,06860</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/11/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,06710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1,06910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1,06830</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,06700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,06700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1,06700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -13825,7 +14713,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24,64</t>
+          <t>24,43</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -13852,7 +14740,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">812,90 </t>
+          <t xml:space="preserve">797,08 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -13879,7 +14767,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22,495</t>
+          <t>22,075</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -13906,7 +14794,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2205,50</t>
+          <t>2220,50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -13933,7 +14821,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1941,65</t>
+          <t>1931,15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -13960,7 +14848,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>59 233,00</t>
+          <t>58 648,00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -13987,7 +14875,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1047,00</t>
+          <t>1051,00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -14014,7 +14902,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8006,00</t>
+          <t>8014,50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -14041,7 +14929,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>890,28</t>
+          <t>891,96</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -14068,7 +14956,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -14122,7 +15010,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>741,00</t>
+          <t>740,00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -14149,7 +15037,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17170,00</t>
+          <t>17000,00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -14176,7 +15064,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24275,00</t>
+          <t>24750,00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -14203,7 +15091,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2584,00</t>
+          <t>2538,00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -14214,6 +15102,60 @@
       <c r="E16" t="inlineStr">
         <is>
           <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ZLME</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ZLME</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,06730</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EURX</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EURX</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,06700</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>EUR</t>
         </is>
       </c>
     </row>
@@ -14228,7 +15170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D16"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14561,6 +15503,50 @@
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Semaine 46</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24,43</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Semaine 46</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24,43</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -14577,7 +15563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D86"/>
+  <dimension ref="A2:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -16306,6 +17292,94 @@
         </is>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">812,90 </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">797,08 </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">797,08 </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -16322,7 +17396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -18011,6 +19085,94 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>22,495</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>22,075</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>22,075</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -18027,7 +19189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -19856,6 +21018,94 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2205,50</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2220,50</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2220,50</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -19872,7 +21122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -21561,6 +22811,94 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1941,65</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1931,15</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1931,15</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -21577,7 +22915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D86"/>
+  <dimension ref="A2:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -23306,6 +24644,72 @@
         </is>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>59 233,00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>58 648,00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -23322,7 +24726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D84"/>
+  <dimension ref="A2:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -25151,6 +26555,72 @@
         </is>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1047,00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1051,00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -25167,7 +26637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D110"/>
+  <dimension ref="A2:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -27573,6 +29043,72 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>10/11/2023</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>8006,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>13/11/2023</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>8014,50</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="3" activeTab="17" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-16310" windowWidth="29020" windowHeight="15700" tabRatio="600" firstSheet="3" activeTab="18" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -33,7 +33,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -91,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -99,6 +101,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D87"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
@@ -2377,6 +2380,138 @@
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>904,41</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>922,31</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>922,31</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>922,31</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>922,31</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>922,31</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2393,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2690,6 +2825,116 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Semaine 49</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9,59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>9,40</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2701,7 +2946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D123"/>
+  <dimension ref="A2:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
@@ -5383,6 +5628,116 @@
         </is>
       </c>
       <c r="D123" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>780,00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>795,00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>795,00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>847,00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>847,00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5399,7 +5754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D88"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
@@ -7316,6 +7671,116 @@
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>742,00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>756,00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>756,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>756,00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>756,00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -7332,7 +7797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D103"/>
+  <dimension ref="A2:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
@@ -9577,6 +10042,116 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16060,00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>15985,00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>15985,00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>15985,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>15985,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9588,7 +10163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D107"/>
+  <dimension ref="A2:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
@@ -11913,6 +12488,116 @@
         </is>
       </c>
       <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>23750,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>25700,00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>25700,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>25700,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>25700,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -11929,7 +12614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D106"/>
+  <dimension ref="A2:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -14242,6 +14927,116 @@
         </is>
       </c>
       <c r="D106" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2421,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2478,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2478,00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2478,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2478,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -14258,7 +15053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -14459,6 +15254,116 @@
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1,08140</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1,08150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1,08150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,08150</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,08150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -14475,9 +15380,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -14676,6 +15581,116 @@
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1,08170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1,08140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1,08140</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,08140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,08140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -14692,14 +15707,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>jeudi</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -14713,7 +15743,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24,43</t>
+          <t>21,39</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -14740,7 +15770,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">797,08 </t>
+          <t xml:space="preserve">809,04 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -14767,7 +15797,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22,075</t>
+          <t>22,67</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -14794,7 +15824,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2220,50</t>
+          <t>2212,50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -14821,7 +15851,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1931,15</t>
+          <t>2045,85</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -14848,7 +15878,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>58 648,00</t>
+          <t>61 062,00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -14875,7 +15905,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1051,00</t>
+          <t>1084,00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -14902,7 +15932,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8014,50</t>
+          <t>8437,00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -14929,7 +15959,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>891,96</t>
+          <t>922,31</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -14956,7 +15986,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>9,40</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -14983,7 +16013,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>776,00</t>
+          <t>847,00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -15010,7 +16040,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>740,00</t>
+          <t>756,00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -15037,7 +16067,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17000,00</t>
+          <t>15985,00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -15064,7 +16094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24750,00</t>
+          <t>25700,00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -15091,7 +16121,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2538,00</t>
+          <t>2478,00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -15118,7 +16148,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1,06730</t>
+          <t>1,08150</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -15145,7 +16175,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1,06700</t>
+          <t>1,08140</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -15170,7 +16200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15547,6 +16577,226 @@
         </is>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Semaine 49</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22,15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Semaine 5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>21,39</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -15563,7 +16813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D90"/>
+  <dimension ref="A2:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -17380,6 +18630,182 @@
         </is>
       </c>
       <c r="D90" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">865,37 </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809,04 </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809,04 </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809,04 </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809,04 </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809,04 </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809,04 </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">809,04 </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -17396,7 +18822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D88"/>
+  <dimension ref="A2:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -19173,6 +20599,182 @@
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>24,27</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>22,67</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>22,67</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>22,67</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>22,67</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>22,67</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>22,67</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>22,67</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -19189,7 +20791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D88"/>
+  <dimension ref="A2:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
@@ -21106,6 +22708,138 @@
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2121,50</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2212,50</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2212,50</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2212,50</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2212,50</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2212,50</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -21122,7 +22856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D88"/>
+  <dimension ref="A2:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
@@ -22899,6 +24633,138 @@
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023,35</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2045,85</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2045,85</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2045,85</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2045,85</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2045,85</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -22915,7 +24781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D89"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -24710,6 +26576,138 @@
         </is>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>60 417,00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>61 062,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>61 062,00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>61 062,00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>61 062,00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>61 062,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -24726,7 +26724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D87"/>
+  <dimension ref="A2:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -26621,6 +28619,138 @@
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1055,00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1084,00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1084,00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1084,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1084,00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1084,00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -26637,7 +28767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D113"/>
+  <dimension ref="A2:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -29109,6 +31239,138 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>05/12/2023</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>8259,00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>8437,00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>8437,00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>8437,00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>8437,00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>01/02/2024</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>8437,00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/metals_prices.xlsx
+++ b/metals_prices.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-16310" windowWidth="29020" windowHeight="15700" tabRatio="600" firstSheet="3" activeTab="18" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17280" tabRatio="600" firstSheet="3" activeTab="19" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="ZLME" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="EURX" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="RPA" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="CUSN" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -473,7 +474,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -485,13 +486,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D93"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2512,6 +2513,50 @@
         </is>
       </c>
       <c r="D93" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1032,41</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1032,41</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -2528,13 +2573,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D19"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="11" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
@@ -2930,6 +2975,50 @@
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Semaine 15</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10,07</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Semaine 15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10,07</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -2946,13 +3035,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D128"/>
+  <dimension ref="A2:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5738,6 +5827,50 @@
         </is>
       </c>
       <c r="D128" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>869,00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>869,00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -5754,13 +5887,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D93"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7781,6 +7914,50 @@
         </is>
       </c>
       <c r="D93" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>844,00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>844,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -7797,15 +7974,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D108"/>
+  <dimension ref="A2:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="13.90625" customWidth="1" min="1" max="1"/>
+    <col width="13.83203125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -10147,6 +10324,50 @@
         </is>
       </c>
       <c r="D108" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>17780,00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>17780,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -10163,13 +10384,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D112"/>
+  <dimension ref="A2:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12598,6 +12819,50 @@
         </is>
       </c>
       <c r="D112" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>32975,00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>32975,00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -12614,13 +12879,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D111"/>
+  <dimension ref="A2:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -15037,6 +15302,50 @@
         </is>
       </c>
       <c r="D111" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2848,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2848,00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -15053,13 +15362,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -15364,6 +15673,50 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1,06510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1,06510</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -15380,13 +15733,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -15691,6 +16044,50 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1,06520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1,06520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
@@ -15707,26 +16104,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="16.7265625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>01/02/2024</t>
+          <t>12/04/2024</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>jeudi</t>
+          <t>Vendredi</t>
         </is>
       </c>
     </row>
@@ -15743,7 +16140,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21,39</t>
+          <t>22,59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -15770,7 +16167,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">809,04 </t>
+          <t xml:space="preserve">1 051,71 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -15797,7 +16194,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22,67</t>
+          <t>29,025</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -15824,7 +16221,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2212,50</t>
+          <t>2443,00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -15851,7 +16248,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2045,85</t>
+          <t>2401,5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -15878,7 +16275,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>61 062,00</t>
+          <t>72 665,00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -15905,7 +16302,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1084,00</t>
+          <t>1238,00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -15932,7 +16329,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8437,00</t>
+          <t>9402,00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -15959,7 +16356,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>922,31</t>
+          <t>1032,41</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -15986,7 +16383,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9,40</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -16013,7 +16410,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>847,00</t>
+          <t>869,00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -16040,7 +16437,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>756,00</t>
+          <t>844,00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -16067,7 +16464,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15985,00</t>
+          <t>17780,00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -16094,7 +16491,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>25700,00</t>
+          <t>32975,00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -16121,7 +16518,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2478,00</t>
+          <t>2848,00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -16148,7 +16545,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1,08150</t>
+          <t>1,06510</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -16175,7 +16572,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1,08140</t>
+          <t>1,06520</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -16186,6 +16583,33 @@
       <c r="E18" t="inlineStr">
         <is>
           <t>EUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CUSN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CUSN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11681,41</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TO</t>
         </is>
       </c>
     </row>
@@ -16200,13 +16624,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D28"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16802,8 +17226,154 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Semaine 15</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22,59</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Semaine 15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22,59</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Semaine 15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Valeur non trouvée</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11681,41</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11681,41</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16813,13 +17383,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D98"/>
+  <dimension ref="A2:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18806,6 +19376,50 @@
         </is>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 051,71 </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 051,71 </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -18822,13 +19436,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D96"/>
+  <dimension ref="A2:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -20775,6 +21389,50 @@
         </is>
       </c>
       <c r="D96" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>29,025</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>29,025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -20791,13 +21449,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A3:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -22840,6 +23498,50 @@
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2443,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2443,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
@@ -22856,13 +23558,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D94"/>
+  <dimension ref="A2:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -24765,6 +25467,50 @@
         </is>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2401,5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>OZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2401,5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>OZ</t>
         </is>
@@ -24781,13 +25527,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D95"/>
+  <dimension ref="A2:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -26708,6 +27454,50 @@
         </is>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>72 665,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>72 665,00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -26724,13 +27514,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D93"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -28751,6 +29541,50 @@
         </is>
       </c>
       <c r="D93" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1238,00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>100KG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1238,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>100KG</t>
         </is>
@@ -28767,13 +29601,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D119"/>
+  <dimension ref="A2:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -31366,6 +32200,50 @@
         </is>
       </c>
       <c r="D119" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>9402,00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>9402,00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>TO</t>
         </is>
